--- a/Templates/TemplateRegimeSwitching.xlsx
+++ b/Templates/TemplateRegimeSwitching.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DE83F6-AD2A-47CE-B3CA-8A0749BBFB67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AA815D-03E3-4729-8CAA-87D3538EA93B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6255" yWindow="2745" windowWidth="21600" windowHeight="11385" tabRatio="807" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="1035" yWindow="4035" windowWidth="21600" windowHeight="11385" tabRatio="807" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="18" r:id="rId1"/>

--- a/Templates/TemplateRegimeSwitching.xlsx
+++ b/Templates/TemplateRegimeSwitching.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AA815D-03E3-4729-8CAA-87D3538EA93B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0248F2-B539-4771-BC36-31213322A17E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1035" yWindow="4035" windowWidth="21600" windowHeight="11385" tabRatio="807" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>

--- a/Templates/TemplateRegimeSwitching.xlsx
+++ b/Templates/TemplateRegimeSwitching.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0248F2-B539-4771-BC36-31213322A17E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F5B606-B17B-4B4C-88BE-3AB9439E4309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="4035" windowWidth="21600" windowHeight="11385" tabRatio="807" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="1380" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="807" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="18" r:id="rId1"/>

--- a/Templates/TemplateRegimeSwitching.xlsx
+++ b/Templates/TemplateRegimeSwitching.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F5B606-B17B-4B4C-88BE-3AB9439E4309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9C4B7D-AF59-481A-8088-4E192C3C47FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="807" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="1725" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="807" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="18" r:id="rId1"/>
-    <sheet name="RS2 Conditional Means" sheetId="11" r:id="rId2"/>
-    <sheet name="RS2 Conditional Variances" sheetId="6" r:id="rId3"/>
-    <sheet name="RS2 Smoothed Probabilities" sheetId="15" r:id="rId4"/>
-    <sheet name="RS3 Conditional Means" sheetId="12" r:id="rId5"/>
-    <sheet name="RS3 Conditional Variances" sheetId="8" r:id="rId6"/>
-    <sheet name="RS3 Smoothed Probabilities" sheetId="16" r:id="rId7"/>
-    <sheet name="RS4 Conditional Means" sheetId="13" r:id="rId8"/>
-    <sheet name="RS4 Conditional Variances" sheetId="14" r:id="rId9"/>
-    <sheet name="RS4 Smoothed Probabilities" sheetId="17" r:id="rId10"/>
+    <sheet name="RS2 CM" sheetId="11" r:id="rId2"/>
+    <sheet name="RS2 CV" sheetId="6" r:id="rId3"/>
+    <sheet name="RS2 SP" sheetId="15" r:id="rId4"/>
+    <sheet name="RS3 CM" sheetId="12" r:id="rId5"/>
+    <sheet name="RS3 CV" sheetId="8" r:id="rId6"/>
+    <sheet name="RS3 SP" sheetId="16" r:id="rId7"/>
+    <sheet name="RS4 CM" sheetId="13" r:id="rId8"/>
+    <sheet name="RS4 CV" sheetId="14" r:id="rId9"/>
+    <sheet name="RS4 SP" sheetId="17" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>

--- a/Templates/TemplateRegimeSwitching.xlsx
+++ b/Templates/TemplateRegimeSwitching.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9C4B7D-AF59-481A-8088-4E192C3C47FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF108ECB-CF65-48EB-B3DC-2BDA71AE49FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="807" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="2070" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="807" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="18" r:id="rId1"/>

--- a/Templates/TemplateRegimeSwitching.xlsx
+++ b/Templates/TemplateRegimeSwitching.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF108ECB-CF65-48EB-B3DC-2BDA71AE49FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9ADB214-F917-4E78-8C3C-CC338E790B8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="807" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>

--- a/Templates/TemplateRegimeSwitching.xlsx
+++ b/Templates/TemplateRegimeSwitching.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9ADB214-F917-4E78-8C3C-CC338E790B8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AEB915-4B92-4BB8-9459-FA1FA7BBA248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="807" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>

--- a/Templates/TemplateRegimeSwitching.xlsx
+++ b/Templates/TemplateRegimeSwitching.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AEB915-4B92-4BB8-9459-FA1FA7BBA248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341CB6BF-0AD2-4BD8-9ABE-7D5C7E4C0C78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="807" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="345" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="807" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="18" r:id="rId1"/>

--- a/Templates/TemplateRegimeSwitching.xlsx
+++ b/Templates/TemplateRegimeSwitching.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341CB6BF-0AD2-4BD8-9ABE-7D5C7E4C0C78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2AD89D-BF64-4D37-AD02-D9DE54564813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="807" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="690" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="807" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="18" r:id="rId1"/>

--- a/Templates/TemplateRegimeSwitching.xlsx
+++ b/Templates/TemplateRegimeSwitching.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2AD89D-BF64-4D37-AD02-D9DE54564813}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1BE070-8FDF-4E96-8E17-769BFCCDF5B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="807" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="1035" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="807" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="18" r:id="rId1"/>

--- a/Templates/TemplateRegimeSwitching.xlsx
+++ b/Templates/TemplateRegimeSwitching.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1BE070-8FDF-4E96-8E17-769BFCCDF5B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E8C60C-D2C3-44D7-AE38-1AA5B927883B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1035" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="807" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>

--- a/Templates/TemplateRegimeSwitching.xlsx
+++ b/Templates/TemplateRegimeSwitching.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\MATLAB\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E8C60C-D2C3-44D7-AE38-1AA5B927883B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9856A16A-D386-4051-B925-73C800222E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="807" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="11400" yWindow="2055" windowWidth="15000" windowHeight="11505" tabRatio="807" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="18" r:id="rId1"/>
